--- a/data/artilheiros.xlsx
+++ b/data/artilheiros.xlsx
@@ -475,11 +475,11 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1328</v>
+        <v>1330</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>46%</t>
+          <t>43%</t>
         </is>
       </c>
     </row>
@@ -498,11 +498,11 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>930</v>
+        <v>1031</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>30%</t>
+          <t>32%</t>
         </is>
       </c>
     </row>
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>816</v>
+        <v>918</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -544,11 +544,11 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>29%</t>
+          <t>26%</t>
         </is>
       </c>
     </row>
@@ -558,20 +558,20 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>M. Braithwaite</t>
+          <t>P. Raul</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Ceara</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>616</v>
+        <v>717</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>38%</t>
+          <t>41%</t>
         </is>
       </c>
     </row>
@@ -581,12 +581,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>P. Raul</t>
+          <t>M. Braithwaite</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Ceara</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -613,11 +613,11 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>28%</t>
+          <t>25%</t>
         </is>
       </c>
     </row>
@@ -636,11 +636,11 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>31%</t>
+          <t>29%</t>
         </is>
       </c>
     </row>
@@ -650,20 +650,20 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Pedro</t>
+          <t>R. Kayzer</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Flamengo</t>
+          <t>Vitoria</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>530</v>
+        <v>516</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>17%</t>
+          <t>31%</t>
         </is>
       </c>
     </row>
@@ -673,20 +673,20 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>I. Pitta</t>
+          <t>Pedro</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>R. B. Bragantino</t>
+          <t>Flamengo</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>520</v>
+        <v>531</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>25%</t>
+          <t>16%</t>
         </is>
       </c>
     </row>

--- a/data/artilheiros.xlsx
+++ b/data/artilheiros.xlsx
@@ -475,7 +475,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1330</v>
+        <v>1535</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -489,20 +489,20 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>G. d. Arrascaeta</t>
+          <t>P. Vegetti</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Flamengo</t>
+          <t>V. d. Gama</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1031</v>
+        <v>1230</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>32%</t>
+          <t>40%</t>
         </is>
       </c>
     </row>
@@ -512,20 +512,20 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>P. Vegetti</t>
+          <t>G. d. Arrascaeta</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>V. d. Gama</t>
+          <t>Flamengo</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>918</v>
+        <v>1245</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>27%</t>
         </is>
       </c>
     </row>
@@ -535,20 +535,20 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Reinaldo</t>
+          <t>Pedro</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Mirassol</t>
+          <t>Flamengo</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>727</v>
+        <v>1045</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>26%</t>
+          <t>22%</t>
         </is>
       </c>
     </row>
@@ -558,20 +558,20 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>P. Raul</t>
+          <t>R. Kayzer</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Ceara</t>
+          <t>Vitoria</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>41%</t>
+          <t>37%</t>
         </is>
       </c>
     </row>
@@ -581,20 +581,20 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>M. Braithwaite</t>
+          <t>Reinaldo</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Gremio</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>616</v>
+        <v>735</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>38%</t>
+          <t>20%</t>
         </is>
       </c>
     </row>
@@ -604,20 +604,20 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>A. Silva</t>
+          <t>P. Raul</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>S. Paulo</t>
+          <t>Ceara</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>520</v>
+        <v>719</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>25%</t>
+          <t>37%</t>
         </is>
       </c>
     </row>
@@ -627,20 +627,20 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Y. Alberto</t>
+          <t>J. López</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Corinthians</t>
+          <t>Palmeiras</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>517</v>
+        <v>628</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>29%</t>
+          <t>21%</t>
         </is>
       </c>
     </row>
@@ -650,20 +650,20 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>R. Kayzer</t>
+          <t>M. Braithwaite</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Vitoria</t>
+          <t>Gremio</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>516</v>
+        <v>620</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>31%</t>
+          <t>30%</t>
         </is>
       </c>
     </row>
@@ -673,20 +673,20 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Pedro</t>
+          <t>I. Pitta</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Flamengo</t>
+          <t>R. B. Bragantino</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>531</v>
+        <v>627</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>16%</t>
+          <t>22%</t>
         </is>
       </c>
     </row>
